--- a/Ontology/Factory/Properties.xlsx
+++ b/Ontology/Factory/Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAURAV SRIVASTAVA\Documents\GitHub\DigitalTwin\Ontology\Factory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C5B481-0642-432F-9371-C5E5A0B9CF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E91DCC-F1FD-4945-B083-AD34CC7D8236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{B6154E4F-774F-4730-84F3-5195ADBCD94E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6154E4F-774F-4730-84F3-5195ADBCD94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -283,6 +283,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -599,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E4B3A2-EF53-41B2-9F0F-6F5502ACE162}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,9 +616,10 @@
     <col min="4" max="5" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -638,7 +642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -659,7 +663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -678,7 +682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -697,7 +701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -718,7 +722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -741,17 +745,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>35</v>
@@ -759,8 +763,9 @@
       <c r="G7" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -783,7 +788,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -802,7 +807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -819,7 +824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -840,7 +845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>6</v>
       </c>
@@ -861,16 +866,16 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">

--- a/Ontology/Factory/Properties.xlsx
+++ b/Ontology/Factory/Properties.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GAURAV SRIVASTAVA\Documents\GitHub\DigitalTwin\Ontology\Factory\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600C3D93-C6A7-4E63-96FE-054E39D8AD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>S. No.</t>
   </si>
@@ -190,28 +199,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -256,43 +252,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -302,24 +283,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -521,7 +563,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -539,7 +581,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -568,7 +610,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -593,7 +635,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -618,7 +660,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -643,7 +685,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -668,7 +710,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -693,7 +735,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -718,7 +760,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -743,7 +785,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -768,7 +810,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,9 +823,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -800,7 +848,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -818,7 +866,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -843,7 +891,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -868,7 +916,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -893,7 +941,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -918,7 +966,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -943,7 +991,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -968,7 +1016,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -993,7 +1041,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1018,7 +1066,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,7 +1091,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1056,9 +1104,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1072,7 +1126,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1090,7 +1144,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1119,7 +1173,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1144,7 +1198,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1169,7 +1223,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1194,7 +1248,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1219,7 +1273,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1244,7 +1298,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1269,7 +1323,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1294,7 +1348,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1319,7 +1373,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1332,921 +1386,299 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6719" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1719" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="4">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" t="s" s="5">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s" s="5">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s" s="5">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" t="s" s="5">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s" s="5">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s" s="6">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s" s="5">
+      <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s" s="5">
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="4">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s" s="5">
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s" s="5">
+      <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="4">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s" s="5">
+      <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s" s="6">
+      <c r="E6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s" s="5">
+      <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s" s="5">
+      <c r="G6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" t="s" s="5">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s" s="5">
+      <c r="D7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s" s="6">
+      <c r="E7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="F7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s" s="5">
+      <c r="G7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="4">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" t="s" s="5">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s" s="5">
+      <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s" s="5">
+      <c r="D8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s" s="6">
+      <c r="E8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="F8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s" s="5">
+      <c r="G8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="3"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" t="s" s="5">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D9" t="s" s="5">
+      <c r="D9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s" s="6">
+      <c r="E9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="F9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G9" t="s" s="5">
+      <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="3"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" t="s" s="5">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="b" s="4">
+      <c r="D10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E10" t="s" s="6">
+      <c r="E10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" t="s" s="5">
+      <c r="F10" s="6"/>
+      <c r="G10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="3"/>
     </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="4">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" t="s" s="5">
+      <c r="B11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s" s="5">
+      <c r="C11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s" s="5">
+      <c r="D11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E11" t="s" s="6">
+      <c r="E11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="F11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G11" t="s" s="5">
+      <c r="G11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="3"/>
     </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="4">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" t="s" s="5">
+      <c r="B12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C12" t="s" s="5">
+      <c r="C12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="b" s="4">
+      <c r="D12" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E12" t="b" s="8">
+      <c r="E12" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" t="s" s="5">
+      <c r="F12" s="6"/>
+      <c r="G12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" ht="13.55" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" ht="13.55" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" ht="13.55" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" ht="13.55" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" ht="13.55" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" ht="13.55" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" ht="13.55" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" ht="13.55" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" ht="13.55" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" ht="13.55" customHeight="1">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" ht="13.55" customHeight="1">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" ht="13.55" customHeight="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" ht="13.55" customHeight="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" ht="13.55" customHeight="1">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" ht="13.55" customHeight="1">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" ht="13.55" customHeight="1">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" ht="13.55" customHeight="1">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" ht="13.55" customHeight="1">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" ht="13.55" customHeight="1">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" ht="13.55" customHeight="1">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" ht="13.55" customHeight="1">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" ht="13.55" customHeight="1">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" ht="13.55" customHeight="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" ht="13.55" customHeight="1">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" ht="13.55" customHeight="1">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" ht="13.55" customHeight="1">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" ht="13.55" customHeight="1">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" ht="13.55" customHeight="1">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" ht="13.55" customHeight="1">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" ht="13.55" customHeight="1">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" ht="13.55" customHeight="1">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" ht="13.55" customHeight="1">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" ht="13.55" customHeight="1">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" ht="13.55" customHeight="1">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" ht="13.55" customHeight="1">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" ht="13.55" customHeight="1">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" ht="13.55" customHeight="1">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" ht="13.55" customHeight="1">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" ht="13.55" customHeight="1">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" ht="13.55" customHeight="1">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" ht="13.55" customHeight="1">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" ht="13.55" customHeight="1">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" ht="13.55" customHeight="1">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
